--- a/docs/timesheet_Anke_Braeckman.xlsx
+++ b/docs/timesheet_Anke_Braeckman.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27815"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dwiezel\Google Drive\HistoGent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dwiezel/Google Drive/HistoGent/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="435" windowWidth="23085" windowHeight="17340" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="440" windowWidth="23080" windowHeight="17340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -47,106 +47,112 @@
     <t>DES</t>
   </si>
   <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>Style tile</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>DES/DEV</t>
+  </si>
+  <si>
+    <t>Style tiles samenbrengen</t>
+  </si>
+  <si>
+    <t>Wireflow + Dossier</t>
+  </si>
+  <si>
+    <t>Dossier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login + Register + Weather </t>
+  </si>
+  <si>
+    <t>Wireframes + visuals aanpassen + Events &amp; spots</t>
+  </si>
+  <si>
+    <t>Dossier opnieuw door fouten</t>
+  </si>
+  <si>
+    <t>Structuur + login + register</t>
+  </si>
+  <si>
+    <t>CSS + dossier aanpassen</t>
+  </si>
+  <si>
+    <t>Jekyll structuur</t>
+  </si>
+  <si>
+    <t>Registratie + weather + Google Maps</t>
+  </si>
+  <si>
+    <t>Google Maps + Login</t>
+  </si>
+  <si>
+    <t>Google Maps</t>
+  </si>
+  <si>
+    <t>Google Maps + favorites</t>
+  </si>
+  <si>
+    <t>Dossier: screenshots + code snippets + algemene lay-out</t>
+  </si>
+  <si>
+    <t>Problemen oplossen code + checkbox events &amp; spots + bijlages dossier</t>
+  </si>
+  <si>
+    <t>Anke Braeckman</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Spots &amp; events + feedback</t>
+  </si>
+  <si>
+    <t>Dossier: link wireframes - sitemap; uitleg bij wireframes + CSS</t>
+  </si>
+  <si>
+    <t>CSS + feedback + jekyll structuur</t>
+  </si>
+  <si>
+    <t>Alles online zetten + testen + selectie proberen maken</t>
+  </si>
+  <si>
+    <t>Dossier lay-out</t>
+  </si>
+  <si>
+    <t>Ideeënbord</t>
+  </si>
+  <si>
+    <t>Moodboard + persona sheets</t>
+  </si>
+  <si>
+    <t>Wireframe mobiel</t>
+  </si>
+  <si>
+    <t>Wireframe desktop</t>
+  </si>
+  <si>
+    <t>Inhoudsopgave + presentatie + poster</t>
+  </si>
+  <si>
+    <t>TOTAAL individueel</t>
+  </si>
+  <si>
+    <t>TOTAAL groepswerk</t>
+  </si>
+  <si>
     <t>TOTAAL</t>
-  </si>
-  <si>
-    <t>DEV</t>
-  </si>
-  <si>
-    <t>Style tile</t>
-  </si>
-  <si>
-    <t>CSS</t>
-  </si>
-  <si>
-    <t>DES/DEV</t>
-  </si>
-  <si>
-    <t>Style tiles samenbrengen</t>
-  </si>
-  <si>
-    <t>Wireflow + Dossier</t>
-  </si>
-  <si>
-    <t>Dossier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login + Register + Weather </t>
-  </si>
-  <si>
-    <t>Wireframes + visuals aanpassen + Events &amp; spots</t>
-  </si>
-  <si>
-    <t>Dossier opnieuw door fouten</t>
-  </si>
-  <si>
-    <t>Structuur + login + register</t>
-  </si>
-  <si>
-    <t>CSS + dossier aanpassen</t>
-  </si>
-  <si>
-    <t>Jekyll structuur</t>
-  </si>
-  <si>
-    <t>Registratie + weather + Google Maps</t>
-  </si>
-  <si>
-    <t>Google Maps + Login</t>
-  </si>
-  <si>
-    <t>Google Maps</t>
-  </si>
-  <si>
-    <t>Google Maps + favorites</t>
-  </si>
-  <si>
-    <t>Dossier: screenshots + code snippets + algemene lay-out</t>
-  </si>
-  <si>
-    <t>Problemen oplossen code + checkbox events &amp; spots + bijlages dossier</t>
-  </si>
-  <si>
-    <t>Anke Braeckman</t>
-  </si>
-  <si>
-    <t>Feedback</t>
-  </si>
-  <si>
-    <t>Spots &amp; events + feedback</t>
-  </si>
-  <si>
-    <t>Dossier: link wireframes - sitemap; uitleg bij wireframes + CSS</t>
-  </si>
-  <si>
-    <t>CSS + feedback + jekyll structuur</t>
-  </si>
-  <si>
-    <t>Alles online zetten + testen + selectie proberen maken</t>
-  </si>
-  <si>
-    <t>Dossier lay-out</t>
-  </si>
-  <si>
-    <t>Ideeënbord</t>
-  </si>
-  <si>
-    <t>Moodboard + persona sheets</t>
-  </si>
-  <si>
-    <t>Wireframe mobiel</t>
-  </si>
-  <si>
-    <t>Wireframe desktop</t>
-  </si>
-  <si>
-    <t>Inhoudsopgave + presentatie + poster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -211,7 +217,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -553,18 +559,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -584,26 +591,21 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7">
-        <f>SUM(E2:E33)</f>
-        <v>98.75</v>
-      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>42646</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="5">
         <v>1.5</v>
@@ -611,18 +613,18 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>42652</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -635,13 +637,13 @@
         <v>42653</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="5">
         <v>2.5</v>
@@ -654,13 +656,13 @@
         <v>42665</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="5">
         <v>1.5</v>
@@ -673,13 +675,13 @@
         <v>42697</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -692,18 +694,17 @@
         <v>42703</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="5">
         <v>2.25</v>
       </c>
-      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -711,13 +712,13 @@
         <v>42704</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="5">
         <v>2.5</v>
@@ -730,16 +731,23 @@
         <v>41228</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="6">
         <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="7">
+        <f>SUM(E2:E9)</f>
+        <v>14.25</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -747,13 +755,13 @@
         <v>41233</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
@@ -764,13 +772,13 @@
         <v>41234</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -781,13 +789,13 @@
         <v>41236</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="6">
         <v>3.5</v>
@@ -798,13 +806,13 @@
         <v>41237</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E13" s="6">
         <v>0.25</v>
@@ -815,13 +823,13 @@
         <v>41242</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="6">
         <v>3</v>
@@ -832,13 +840,13 @@
         <v>41243</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="6">
         <v>2.5</v>
@@ -849,288 +857,304 @@
         <v>41244</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>41250</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>41250</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="6">
         <v>3.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>41251</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="6">
         <v>3.25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>41252</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>41256</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>41257</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>41257</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>41258</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="6">
         <v>5.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>41258</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="6">
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>41259</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="6">
         <v>7.75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>41260</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="6">
         <v>8.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>41261</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" s="6">
         <v>2.75</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>41262</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>41263</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="6">
         <v>2.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>41264</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>41265</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" s="6">
         <v>4</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="5">
+        <f>SUM(E10:E32)</f>
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="5">
+        <f>SUM(E2:E32)</f>
+        <v>98.75</v>
       </c>
     </row>
   </sheetData>
